--- a/data/trans_orig/EDAD_G2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EDAD_G2-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en País Vasco</t>
+          <t>Grupo de edad en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4417,7 +4417,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en Andalucia</t>
+          <t>Grupo de edad en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8288,7 +8288,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en C.Valenciana</t>
+          <t>Grupo de edad en C.Valenciana (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -12159,7 +12159,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en Barcelona</t>
+          <t>Grupo de edad en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EDAD_G2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EDAD_G2-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30149</t>
+          <t>26713</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26090</t>
+          <t>23428</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33988</t>
+          <t>30431</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,19%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>70428</t>
+          <t>66374</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>65334</t>
+          <t>61897</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>75367</t>
+          <t>71642</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>54,93%</t>
+          <t>54,39%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>50,96%</t>
+          <t>50,72%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>58,78%</t>
+          <t>58,7%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>100577</t>
+          <t>93087</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>94230</t>
+          <t>87039</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>106959</t>
+          <t>99377</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>46,31%</t>
+          <t>45,28%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>43,38%</t>
+          <t>42,33%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>49,24%</t>
+          <t>48,33%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20302</t>
+          <t>18814</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16988</t>
+          <t>15602</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24157</t>
+          <t>22147</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27593</t>
+          <t>25563</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23667</t>
+          <t>21995</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31750</t>
+          <t>29490</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>47895</t>
+          <t>44377</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>42643</t>
+          <t>39805</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>53469</t>
+          <t>49311</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>23,98%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14973</t>
+          <t>14087</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11828</t>
+          <t>11283</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18593</t>
+          <t>17225</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13114</t>
+          <t>12374</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10470</t>
+          <t>9939</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16600</t>
+          <t>15344</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>28087</t>
+          <t>26461</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>24143</t>
+          <t>22306</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>32666</t>
+          <t>30708</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>14,94%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10195</t>
+          <t>8720</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7582</t>
+          <t>6546</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13255</t>
+          <t>11178</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7777</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5586</t>
+          <t>5525</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10472</t>
+          <t>10343</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>17972</t>
+          <t>16352</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>14708</t>
+          <t>13441</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>21759</t>
+          <t>20261</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>9,85%</t>
         </is>
       </c>
     </row>
@@ -1188,32 +1188,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8160</t>
+          <t>9206</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5955</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10755</t>
+          <t>12220</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1223,32 +1223,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3612</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>2638</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>6500</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1258,32 +1258,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>11772</t>
+          <t>13474</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>9064</t>
+          <t>10405</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>14509</t>
+          <t>17000</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3208</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>2290</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5348</t>
+          <t>6127</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1336,32 +1336,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2790</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1642</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4633</t>
+          <t>5527</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1371,32 +1371,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>6997</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>4929</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>8729</t>
+          <t>9991</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,86%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1414,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2364</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>1176</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3695</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1449,32 +1449,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2897</t>
+          <t>2491</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1740</t>
+          <t>1427</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4704</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1484,27 +1484,27 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>4898</t>
+          <t>4855</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3131</t>
+          <t>3163</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>7102</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
@@ -1527,17 +1527,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1562,17 +1562,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1597,17 +1597,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>217200</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>217200</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>217200</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>56259</t>
+          <t>53189</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>50328</t>
+          <t>47503</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>62977</t>
+          <t>59505</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>55863</t>
+          <t>57186</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>50468</t>
+          <t>51580</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>62778</t>
+          <t>63365</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>112122</t>
+          <t>110375</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>103231</t>
+          <t>102125</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>120575</t>
+          <t>119612</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>13,13%</t>
         </is>
       </c>
     </row>
@@ -1757,32 +1757,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>66162</t>
+          <t>63949</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60097</t>
+          <t>57902</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>72721</t>
+          <t>70327</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1792,32 +1792,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>70514</t>
+          <t>70953</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>64523</t>
+          <t>64824</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77736</t>
+          <t>78099</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1827,32 +1827,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>136676</t>
+          <t>134902</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>127030</t>
+          <t>125592</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>146774</t>
+          <t>144186</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>15,82%</t>
         </is>
       </c>
     </row>
@@ -1870,32 +1870,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>84804</t>
+          <t>83450</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>77549</t>
+          <t>76527</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>91247</t>
+          <t>91117</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1905,32 +1905,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>98552</t>
+          <t>97013</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>90655</t>
+          <t>88942</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>105909</t>
+          <t>104610</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1940,32 +1940,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>183356</t>
+          <t>180463</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>172684</t>
+          <t>168798</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>194954</t>
+          <t>191063</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>20,97%</t>
         </is>
       </c>
     </row>
@@ -1983,32 +1983,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95269</t>
+          <t>95881</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87496</t>
+          <t>88461</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>102685</t>
+          <t>103718</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2018,32 +2018,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>81633</t>
+          <t>84581</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74686</t>
+          <t>77317</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>88953</t>
+          <t>91482</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2053,32 +2053,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>176901</t>
+          <t>180462</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>167105</t>
+          <t>169639</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>188273</t>
+          <t>192283</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>21,1%</t>
         </is>
       </c>
     </row>
@@ -2096,32 +2096,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>61589</t>
+          <t>64284</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>55570</t>
+          <t>57838</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>68277</t>
+          <t>71059</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2131,32 +2131,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>52213</t>
+          <t>57366</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>46663</t>
+          <t>51107</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>59443</t>
+          <t>63878</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2166,32 +2166,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>113802</t>
+          <t>121650</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>104805</t>
+          <t>113152</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>121916</t>
+          <t>132326</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>14,52%</t>
         </is>
       </c>
     </row>
@@ -2209,32 +2209,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40886</t>
+          <t>42229</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35887</t>
+          <t>37035</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>46969</t>
+          <t>47997</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2244,32 +2244,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28986</t>
+          <t>29057</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>24805</t>
+          <t>24867</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>33806</t>
+          <t>34071</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2279,32 +2279,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>69873</t>
+          <t>71286</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>63307</t>
+          <t>64102</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>76858</t>
+          <t>78467</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,61%</t>
         </is>
       </c>
     </row>
@@ -2322,102 +2322,102 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>49827</t>
+          <t>61387</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>44415</t>
+          <t>54339</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>56007</t>
+          <t>68628</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>14,78%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>50768</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>45234</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>56801</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>11,36%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>112156</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>101756</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>120546</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
           <t>12,31%</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>46511</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>40607</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>52701</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>10,71%</t>
-        </is>
-      </c>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>9,35%</t>
-        </is>
-      </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>12,14%</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>562</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>96339</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>89400</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>105397</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>10,84%</t>
-        </is>
-      </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>13,23%</t>
         </is>
       </c>
     </row>
@@ -2435,17 +2435,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2470,17 +2470,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2505,17 +2505,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2552,32 +2552,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9720</t>
+          <t>9244</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7494</t>
+          <t>7017</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12939</t>
+          <t>12050</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2587,32 +2587,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7759</t>
+          <t>8916</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5731</t>
+          <t>6686</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>10195</t>
+          <t>11758</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2622,32 +2622,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>17479</t>
+          <t>18160</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>14071</t>
+          <t>14905</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>21279</t>
+          <t>22164</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -2665,32 +2665,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21500</t>
+          <t>22491</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17993</t>
+          <t>18556</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25207</t>
+          <t>27313</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2700,32 +2700,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16657</t>
+          <t>19368</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>13585</t>
+          <t>16183</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>20817</t>
+          <t>23687</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2735,32 +2735,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>38158</t>
+          <t>41860</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>33559</t>
+          <t>36769</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>43267</t>
+          <t>47204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>11,63%</t>
         </is>
       </c>
     </row>
@@ -2778,32 +2778,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>26162</t>
+          <t>31285</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22215</t>
+          <t>26713</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30167</t>
+          <t>36141</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2813,32 +2813,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>35463</t>
+          <t>42069</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>31037</t>
+          <t>36839</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>40252</t>
+          <t>47244</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2848,32 +2848,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>61626</t>
+          <t>73354</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>56183</t>
+          <t>65623</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>67952</t>
+          <t>80364</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>19,79%</t>
         </is>
       </c>
     </row>
@@ -2891,32 +2891,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>33352</t>
+          <t>39928</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>29062</t>
+          <t>34998</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>37933</t>
+          <t>45629</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>25,87%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2926,32 +2926,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>48367</t>
+          <t>59861</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>43346</t>
+          <t>54212</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>53504</t>
+          <t>66456</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2961,32 +2961,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>81719</t>
+          <t>99789</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>74453</t>
+          <t>91418</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>88088</t>
+          <t>108033</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>26,61%</t>
         </is>
       </c>
     </row>
@@ -3004,32 +3004,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>25215</t>
+          <t>30575</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>21118</t>
+          <t>26051</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>29268</t>
+          <t>35555</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3039,32 +3039,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>42614</t>
+          <t>49529</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>37326</t>
+          <t>43689</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>47655</t>
+          <t>55352</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3074,32 +3074,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>67828</t>
+          <t>80104</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>61497</t>
+          <t>73045</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>74410</t>
+          <t>87927</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>21,66%</t>
         </is>
       </c>
     </row>
@@ -3117,32 +3117,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>25249</t>
+          <t>29160</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>21261</t>
+          <t>24801</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>29294</t>
+          <t>34348</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3152,67 +3152,67 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>31825</t>
+          <t>36804</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>27303</t>
+          <t>31578</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>36665</t>
+          <t>41969</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
+          <t>16,03%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>18,28%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>65964</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>59542</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>73591</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
           <t>16,25%</t>
         </is>
       </c>
-      <c r="O25" s="2" t="inlineStr">
-        <is>
-          <t>13,94%</t>
-        </is>
-      </c>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>18,72%</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>57074</t>
-        </is>
-      </c>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>51278</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>63703</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr">
-        <is>
-          <t>16,38%</t>
-        </is>
-      </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>18,12%</t>
         </is>
       </c>
     </row>
@@ -3230,69 +3230,69 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11289</t>
+          <t>13684</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>8741</t>
+          <t>10343</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>14237</t>
+          <t>17521</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>13104</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>10287</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>16990</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
           <t>7,4%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>5,73%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>9,34%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>13212</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>16752</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>6,74%</t>
-        </is>
-      </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>5,34%</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>8,55%</t>
-        </is>
-      </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
           <t>136</t>
@@ -3300,32 +3300,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>24501</t>
+          <t>26789</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>20146</t>
+          <t>22572</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>28723</t>
+          <t>32441</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>7,99%</t>
         </is>
       </c>
     </row>
@@ -3343,17 +3343,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3378,17 +3378,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3413,17 +3413,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3460,102 +3460,102 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>96129</t>
+          <t>89146</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>88443</t>
+          <t>81782</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>105478</t>
+          <t>97066</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
+          <t>12,31%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>11,29%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>13,4%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>132476</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>122951</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>141665</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>16,59%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>17,74%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1361</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>221622</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>210340</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>233688</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>14,55%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
           <t>13,81%</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>12,7%</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>15,15%</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>807</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>134049</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>125915</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>143234</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>17,68%</t>
-        </is>
-      </c>
-      <c r="O28" s="2" t="inlineStr">
-        <is>
-          <t>16,6%</t>
-        </is>
-      </c>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>18,89%</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>1361</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>230178</t>
-        </is>
-      </c>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>216943</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr">
-        <is>
-          <t>242318</t>
-        </is>
-      </c>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>15,82%</t>
-        </is>
-      </c>
-      <c r="V28" s="2" t="inlineStr">
-        <is>
-          <t>14,91%</t>
-        </is>
-      </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>15,34%</t>
         </is>
       </c>
     </row>
@@ -3573,32 +3573,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>107964</t>
+          <t>105254</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>99606</t>
+          <t>96815</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>117096</t>
+          <t>113437</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3608,32 +3608,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>114764</t>
+          <t>115884</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>106512</t>
+          <t>108143</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>124088</t>
+          <t>125447</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3643,32 +3643,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>222728</t>
+          <t>221138</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>211856</t>
+          <t>209087</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>234621</t>
+          <t>232505</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>15,27%</t>
         </is>
       </c>
     </row>
@@ -3686,32 +3686,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>125940</t>
+          <t>128822</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>117156</t>
+          <t>119477</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>135533</t>
+          <t>137913</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3721,32 +3721,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>147130</t>
+          <t>151456</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>137612</t>
+          <t>141860</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>157833</t>
+          <t>161621</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3756,32 +3756,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>273070</t>
+          <t>280278</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>260144</t>
+          <t>265718</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>286689</t>
+          <t>293148</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>19,25%</t>
         </is>
       </c>
     </row>
@@ -3799,32 +3799,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>138815</t>
+          <t>144528</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>129388</t>
+          <t>135471</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>148293</t>
+          <t>155072</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3834,32 +3834,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>137776</t>
+          <t>152075</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>129114</t>
+          <t>142230</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>147774</t>
+          <t>161889</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3869,32 +3869,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>276592</t>
+          <t>296603</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>263140</t>
+          <t>282239</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>290279</t>
+          <t>309767</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>20,34%</t>
         </is>
       </c>
     </row>
@@ -3912,32 +3912,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>94964</t>
+          <t>104065</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>87053</t>
+          <t>95518</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>103546</t>
+          <t>113842</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3947,32 +3947,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>98439</t>
+          <t>111163</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>90552</t>
+          <t>102033</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>107279</t>
+          <t>120082</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3982,32 +3982,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>193402</t>
+          <t>215228</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>182956</t>
+          <t>203524</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>205845</t>
+          <t>228390</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>15,0%</t>
         </is>
       </c>
     </row>
@@ -4025,32 +4025,32 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>69344</t>
+          <t>75045</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>62712</t>
+          <t>67337</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>82156</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4060,32 +4060,32 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>63601</t>
+          <t>69202</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>57089</t>
+          <t>61643</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>70152</t>
+          <t>76058</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4095,32 +4095,32 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>132945</t>
+          <t>144247</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>123442</t>
+          <t>133899</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>142298</t>
+          <t>156029</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>10,25%</t>
         </is>
       </c>
     </row>
@@ -4138,32 +4138,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>63117</t>
+          <t>77436</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>56733</t>
+          <t>69550</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>70060</t>
+          <t>85118</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4173,32 +4173,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>62620</t>
+          <t>66364</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>55952</t>
+          <t>59317</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>70029</t>
+          <t>73277</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4208,32 +4208,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>125737</t>
+          <t>143799</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>116506</t>
+          <t>133622</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>134912</t>
+          <t>155370</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>10,2%</t>
         </is>
       </c>
     </row>
@@ -4251,17 +4251,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4286,17 +4286,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4321,17 +4321,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4612,12 +4612,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>49704</t>
+          <t>50107</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>72635</t>
+          <t>72690</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4627,12 +4627,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4647,12 +4647,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>141974</t>
+          <t>140947</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>172260</t>
+          <t>172859</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4662,12 +4662,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>43,22%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>198753</t>
+          <t>199913</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>237845</t>
+          <t>238445</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4697,12 +4697,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>37,98%</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40737</t>
+          <t>40052</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61609</t>
+          <t>62428</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4740,12 +4740,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4760,12 +4760,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>91414</t>
+          <t>90590</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>117706</t>
+          <t>117580</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>29,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4795,12 +4795,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>138109</t>
+          <t>136604</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>172235</t>
+          <t>170937</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4810,12 +4810,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>27,23%</t>
         </is>
       </c>
     </row>
@@ -4838,12 +4838,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35729</t>
+          <t>36351</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>58828</t>
+          <t>59164</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4853,12 +4853,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>58519</t>
+          <t>57729</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>81720</t>
+          <t>81972</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4888,12 +4888,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4908,12 +4908,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>99663</t>
+          <t>101047</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>131899</t>
+          <t>133943</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4923,12 +4923,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>21,33%</t>
         </is>
       </c>
     </row>
@@ -4951,12 +4951,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22363</t>
+          <t>21952</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42694</t>
+          <t>43776</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4966,12 +4966,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4986,12 +4986,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28623</t>
+          <t>27902</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>58560</t>
+          <t>56477</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5021,12 +5021,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>55338</t>
+          <t>55172</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>87663</t>
+          <t>88175</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5036,12 +5036,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>14,04%</t>
         </is>
       </c>
     </row>
@@ -5064,12 +5064,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12467</t>
+          <t>12317</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30418</t>
+          <t>29570</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -5079,12 +5079,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -5099,12 +5099,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9772</t>
+          <t>9871</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>22864</t>
+          <t>23316</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>25899</t>
+          <t>25911</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>47070</t>
+          <t>48519</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,73%</t>
         </is>
       </c>
     </row>
@@ -5177,12 +5177,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8116</t>
+          <t>7718</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29209</t>
+          <t>26445</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5192,12 +5192,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5212,12 +5212,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>3052</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14112</t>
+          <t>14196</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>13570</t>
+          <t>12879</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>36210</t>
+          <t>35109</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,59%</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21555</t>
+          <t>21069</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5325,12 +5325,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2392</t>
+          <t>2263</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20662</t>
+          <t>19666</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5340,12 +5340,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5360,12 +5360,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4588</t>
+          <t>4587</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>30950</t>
+          <t>30572</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -5520,12 +5520,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35161</t>
+          <t>33663</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>78009</t>
+          <t>77846</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5535,12 +5535,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>35871</t>
+          <t>33271</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>72474</t>
+          <t>72007</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>83259</t>
+          <t>83615</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>141505</t>
+          <t>142957</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,11%</t>
         </is>
       </c>
     </row>
@@ -5633,12 +5633,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57902</t>
+          <t>60199</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>132962</t>
+          <t>132694</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5648,12 +5648,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5668,12 +5668,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>112456</t>
+          <t>112843</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>672193</t>
+          <t>746146</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5683,12 +5683,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>48,48%</t>
+          <t>53,82%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5703,12 +5703,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>207334</t>
+          <t>203213</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1018706</t>
+          <t>1033693</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5718,12 +5718,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>36,97%</t>
         </is>
       </c>
     </row>
@@ -5746,12 +5746,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>121987</t>
+          <t>124563</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>264745</t>
+          <t>260826</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5781,12 +5781,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>117386</t>
+          <t>111283</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>235900</t>
+          <t>230423</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5796,12 +5796,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5816,12 +5816,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>284408</t>
+          <t>284132</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>470335</t>
+          <t>473045</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5831,12 +5831,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,92%</t>
         </is>
       </c>
     </row>
@@ -5859,12 +5859,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>274640</t>
+          <t>276590</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>877219</t>
+          <t>869576</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5874,12 +5874,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>62,24%</t>
+          <t>61,7%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -5894,12 +5894,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>160584</t>
+          <t>148768</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>311333</t>
+          <t>306768</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -5929,12 +5929,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>507755</t>
+          <t>501626</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1264650</t>
+          <t>1252980</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5944,12 +5944,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>45,23%</t>
+          <t>44,82%</t>
         </is>
       </c>
     </row>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>115333</t>
+          <t>107203</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>246118</t>
+          <t>245236</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5987,12 +5987,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6007,12 +6007,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>140708</t>
+          <t>125617</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>267067</t>
+          <t>265822</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6022,12 +6022,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6042,12 +6042,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>298208</t>
+          <t>297607</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>492900</t>
+          <t>487822</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6057,12 +6057,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>17,45%</t>
         </is>
       </c>
     </row>
@@ -6085,12 +6085,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85580</t>
+          <t>90367</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>200182</t>
+          <t>199548</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6100,12 +6100,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6120,12 +6120,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>136016</t>
+          <t>140415</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>423721</t>
+          <t>438992</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6135,12 +6135,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6155,12 +6155,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>270479</t>
+          <t>273282</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>586486</t>
+          <t>599117</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6170,12 +6170,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>21,43%</t>
         </is>
       </c>
     </row>
@@ -6198,12 +6198,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>117169</t>
+          <t>119447</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>275178</t>
+          <t>283033</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -6233,12 +6233,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>93558</t>
+          <t>78142</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>196952</t>
+          <t>193801</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -6248,12 +6248,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -6268,12 +6268,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>257381</t>
+          <t>255355</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>451755</t>
+          <t>444945</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -6283,12 +6283,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>15,91%</t>
         </is>
       </c>
     </row>
@@ -6428,12 +6428,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>22928</t>
+          <t>23482</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>40294</t>
+          <t>41350</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6443,12 +6443,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6463,12 +6463,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>14773</t>
+          <t>13958</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>27314</t>
+          <t>26865</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6478,12 +6478,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6498,12 +6498,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>41325</t>
+          <t>40600</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>64475</t>
+          <t>63007</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6513,12 +6513,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>6,98%</t>
         </is>
       </c>
     </row>
@@ -6541,12 +6541,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>40999</t>
+          <t>42487</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>64652</t>
+          <t>65366</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6556,12 +6556,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6576,12 +6576,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>29831</t>
+          <t>30058</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>45868</t>
+          <t>46303</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6591,12 +6591,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6611,12 +6611,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>76127</t>
+          <t>76625</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>106401</t>
+          <t>104280</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6626,12 +6626,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -6654,12 +6654,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>71474</t>
+          <t>71480</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>103971</t>
+          <t>105043</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6669,12 +6669,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6689,12 +6689,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>53876</t>
+          <t>54814</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>77975</t>
+          <t>78751</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6704,12 +6704,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6724,12 +6724,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>132358</t>
+          <t>132278</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>172458</t>
+          <t>172471</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>19,1%</t>
         </is>
       </c>
     </row>
@@ -6767,12 +6767,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>91560</t>
+          <t>93148</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>131347</t>
+          <t>132193</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6782,12 +6782,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -6802,12 +6802,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>102887</t>
+          <t>102622</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>132686</t>
+          <t>133317</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6817,12 +6817,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -6837,12 +6837,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>202913</t>
+          <t>205574</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>253273</t>
+          <t>251573</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6852,12 +6852,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>27,85%</t>
         </is>
       </c>
     </row>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>80333</t>
+          <t>80639</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>118046</t>
+          <t>116534</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6895,12 +6895,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6915,12 +6915,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>80986</t>
+          <t>79181</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>111118</t>
+          <t>109718</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6930,12 +6930,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6950,12 +6950,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>170164</t>
+          <t>168631</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>216908</t>
+          <t>216433</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6965,12 +6965,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>23,96%</t>
         </is>
       </c>
     </row>
@@ -6993,12 +6993,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>41090</t>
+          <t>41172</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>79301</t>
+          <t>79963</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7008,12 +7008,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7028,12 +7028,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>66624</t>
+          <t>66896</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>101170</t>
+          <t>100792</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7043,12 +7043,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7063,12 +7063,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>114281</t>
+          <t>117268</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>168651</t>
+          <t>169986</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -7078,12 +7078,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>18,82%</t>
         </is>
       </c>
     </row>
@@ -7106,12 +7106,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>13084</t>
+          <t>12116</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>40144</t>
+          <t>39086</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -7121,12 +7121,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7141,12 +7141,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>15266</t>
+          <t>15543</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>41597</t>
+          <t>42318</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -7156,12 +7156,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -7176,12 +7176,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>33940</t>
+          <t>33764</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>72021</t>
+          <t>70178</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>7,77%</t>
         </is>
       </c>
     </row>
@@ -7336,12 +7336,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>102970</t>
+          <t>102280</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>181601</t>
+          <t>179668</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -7351,12 +7351,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>171643</t>
+          <t>162899</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>271259</t>
+          <t>268085</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -7386,12 +7386,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -7406,12 +7406,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>298631</t>
+          <t>302278</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>434036</t>
+          <t>433383</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -7421,12 +7421,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>10,02%</t>
         </is>
       </c>
     </row>
@@ -7449,12 +7449,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>137505</t>
+          <t>136434</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>240932</t>
+          <t>242259</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7464,12 +7464,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7484,12 +7484,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>257578</t>
+          <t>260379</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>936853</t>
+          <t>944737</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7499,12 +7499,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>42,4%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7519,12 +7519,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>447941</t>
+          <t>455316</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>1359233</t>
+          <t>1185605</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7534,12 +7534,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>27,4%</t>
         </is>
       </c>
     </row>
@@ -7562,12 +7562,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>232863</t>
+          <t>222458</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>397669</t>
+          <t>399179</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7577,12 +7577,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7597,12 +7597,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>228834</t>
+          <t>230130</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>369284</t>
+          <t>366813</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7612,12 +7612,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7632,12 +7632,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>519690</t>
+          <t>522693</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>747720</t>
+          <t>740239</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7647,12 +7647,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>17,11%</t>
         </is>
       </c>
     </row>
@@ -7675,12 +7675,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>418551</t>
+          <t>419628</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1093649</t>
+          <t>1125999</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -7690,12 +7690,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>52,12%</t>
+          <t>53,66%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -7710,12 +7710,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>299289</t>
+          <t>283268</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>469027</t>
+          <t>462633</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -7725,12 +7725,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -7745,12 +7745,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>789483</t>
+          <t>799681</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1590542</t>
+          <t>1708356</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -7760,12 +7760,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>36,76%</t>
+          <t>39,48%</t>
         </is>
       </c>
     </row>
@@ -7788,12 +7788,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>202971</t>
+          <t>214369</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>365349</t>
+          <t>366672</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -7803,12 +7803,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -7823,12 +7823,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>231530</t>
+          <t>235931</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>373136</t>
+          <t>369881</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -7838,12 +7838,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -7858,12 +7858,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>506053</t>
+          <t>498897</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>716850</t>
+          <t>705461</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -7873,12 +7873,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>16,3%</t>
         </is>
       </c>
     </row>
@@ -7901,12 +7901,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>153544</t>
+          <t>156200</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>279510</t>
+          <t>279532</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -7936,12 +7936,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>231793</t>
+          <t>227589</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>538853</t>
+          <t>528049</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -7951,12 +7951,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -7971,12 +7971,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>432364</t>
+          <t>444053</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>741485</t>
+          <t>775326</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -7986,12 +7986,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>17,92%</t>
         </is>
       </c>
     </row>
@@ -8014,12 +8014,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>168244</t>
+          <t>158447</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>303771</t>
+          <t>297642</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8029,12 +8029,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8049,12 +8049,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>127603</t>
+          <t>129585</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>224492</t>
+          <t>226938</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8064,12 +8064,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -8084,12 +8084,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>329652</t>
+          <t>327097</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>504376</t>
+          <t>492153</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -8099,12 +8099,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>11,37%</t>
         </is>
       </c>
     </row>
@@ -12354,12 +12354,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16980</t>
+          <t>16559</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31871</t>
+          <t>32526</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -12369,12 +12369,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -12389,12 +12389,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>55597</t>
+          <t>55766</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>76565</t>
+          <t>76124</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -12404,12 +12404,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>46,15%</t>
+          <t>46,3%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>63,56%</t>
+          <t>63,2%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -12424,12 +12424,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>77008</t>
+          <t>75809</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>103881</t>
+          <t>103798</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -12439,12 +12439,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>35,16%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>47,39%</t>
         </is>
       </c>
     </row>
@@ -12467,12 +12467,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10688</t>
+          <t>10457</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27192</t>
+          <t>28140</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -12482,12 +12482,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -12502,12 +12502,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12856</t>
+          <t>12333</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28191</t>
+          <t>29770</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -12517,12 +12517,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -12537,12 +12537,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>27231</t>
+          <t>27801</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>51429</t>
+          <t>49690</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -12552,12 +12552,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>22,69%</t>
         </is>
       </c>
     </row>
@@ -12580,12 +12580,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10293</t>
+          <t>11219</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29039</t>
+          <t>29942</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -12595,12 +12595,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -12615,12 +12615,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5662</t>
+          <t>5569</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18877</t>
+          <t>19418</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -12630,12 +12630,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -12650,12 +12650,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>18785</t>
+          <t>19160</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>41462</t>
+          <t>41370</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -12665,12 +12665,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>18,89%</t>
         </is>
       </c>
     </row>
@@ -12693,12 +12693,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6622</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24675</t>
+          <t>25882</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -12708,12 +12708,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -12728,12 +12728,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2436</t>
+          <t>2419</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14023</t>
+          <t>14283</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -12743,12 +12743,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -12763,12 +12763,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>10784</t>
+          <t>10237</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>32121</t>
+          <t>30867</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -12778,12 +12778,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>14,09%</t>
         </is>
       </c>
     </row>
@@ -12806,12 +12806,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8326</t>
+          <t>8261</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27223</t>
+          <t>26563</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -12821,12 +12821,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -12841,12 +12841,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4656</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18729</t>
+          <t>17627</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -12856,12 +12856,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -12876,12 +12876,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>14802</t>
+          <t>15580</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>36593</t>
+          <t>39781</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -12891,12 +12891,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>18,16%</t>
         </is>
       </c>
     </row>
@@ -12919,12 +12919,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4368</t>
+          <t>4434</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12983</t>
+          <t>13400</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -12934,12 +12934,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -12954,12 +12954,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4360</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14354</t>
+          <t>13936</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -12969,12 +12969,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -12989,12 +12989,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>10639</t>
+          <t>10733</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>24410</t>
+          <t>23788</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -13004,12 +13004,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>10,86%</t>
         </is>
       </c>
     </row>
@@ -13032,12 +13032,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4945</t>
+          <t>4761</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -13047,12 +13047,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -13067,12 +13067,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6187</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -13082,12 +13082,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -13102,12 +13102,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3055</t>
+          <t>2887</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9041</t>
+          <t>8885</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -13117,12 +13117,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,06%</t>
         </is>
       </c>
     </row>
@@ -13262,12 +13262,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22997</t>
+          <t>23324</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>36939</t>
+          <t>36983</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -13277,12 +13277,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -13297,12 +13297,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>30980</t>
+          <t>31221</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>45636</t>
+          <t>45547</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -13312,12 +13312,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -13332,12 +13332,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>57806</t>
+          <t>57542</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>78531</t>
+          <t>78025</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -13347,12 +13347,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>10,96%</t>
         </is>
       </c>
     </row>
@@ -13375,12 +13375,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24749</t>
+          <t>24593</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39035</t>
+          <t>38920</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -13390,12 +13390,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -13410,12 +13410,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36049</t>
+          <t>36728</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53751</t>
+          <t>54222</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -13425,12 +13425,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -13445,12 +13445,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>66327</t>
+          <t>66119</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>88416</t>
+          <t>88771</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -13460,12 +13460,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>12,47%</t>
         </is>
       </c>
     </row>
@@ -13488,12 +13488,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>40236</t>
+          <t>39672</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>57572</t>
+          <t>56881</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -13503,12 +13503,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -13523,12 +13523,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>50874</t>
+          <t>50099</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>69958</t>
+          <t>70732</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -13538,12 +13538,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -13558,12 +13558,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>94559</t>
+          <t>96218</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>121911</t>
+          <t>122409</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -13573,12 +13573,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>17,2%</t>
         </is>
       </c>
     </row>
@@ -13601,12 +13601,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>50477</t>
+          <t>52103</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71137</t>
+          <t>71263</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -13616,12 +13616,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -13636,12 +13636,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>48806</t>
+          <t>50600</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>69661</t>
+          <t>70024</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -13651,12 +13651,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -13671,12 +13671,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>106177</t>
+          <t>107045</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>133768</t>
+          <t>133800</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -13686,12 +13686,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>18,8%</t>
         </is>
       </c>
     </row>
@@ -13714,12 +13714,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>57477</t>
+          <t>56562</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>78529</t>
+          <t>77702</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -13729,12 +13729,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -13749,12 +13749,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>48150</t>
+          <t>47689</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>68972</t>
+          <t>68019</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -13764,12 +13764,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -13784,12 +13784,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>111015</t>
+          <t>109823</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>139973</t>
+          <t>138378</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -13799,12 +13799,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>19,44%</t>
         </is>
       </c>
     </row>
@@ -13827,12 +13827,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>55340</t>
+          <t>55177</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>76970</t>
+          <t>76483</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -13842,12 +13842,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -13862,12 +13862,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>37480</t>
+          <t>37043</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>56248</t>
+          <t>55961</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -13877,12 +13877,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -13897,12 +13897,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>97826</t>
+          <t>97668</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>126607</t>
+          <t>124910</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -13912,12 +13912,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>17,55%</t>
         </is>
       </c>
     </row>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>45800</t>
+          <t>45642</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>65160</t>
+          <t>65792</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -13955,12 +13955,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -13975,12 +13975,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>41436</t>
+          <t>42082</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>59800</t>
+          <t>59832</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -13990,12 +13990,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -14010,12 +14010,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>93517</t>
+          <t>93192</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>121161</t>
+          <t>119476</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -14025,12 +14025,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>16,78%</t>
         </is>
       </c>
     </row>
@@ -14170,12 +14170,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11950</t>
+          <t>11749</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21597</t>
+          <t>21167</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -14185,12 +14185,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -14205,12 +14205,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6759</t>
+          <t>6952</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>14590</t>
+          <t>14621</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -14220,12 +14220,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -14240,12 +14240,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>20789</t>
+          <t>20915</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>32240</t>
+          <t>32641</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -14255,12 +14255,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -14283,12 +14283,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15323</t>
+          <t>15176</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25399</t>
+          <t>25356</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -14298,12 +14298,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -14318,12 +14318,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>18541</t>
+          <t>18470</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>30620</t>
+          <t>30141</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -14333,12 +14333,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -14353,12 +14353,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>36836</t>
+          <t>37216</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>51966</t>
+          <t>52338</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -14368,12 +14368,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,31%</t>
         </is>
       </c>
     </row>
@@ -14396,12 +14396,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>24590</t>
+          <t>24888</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>38931</t>
+          <t>39061</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -14411,12 +14411,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -14431,12 +14431,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>38147</t>
+          <t>38116</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>54756</t>
+          <t>54611</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -14446,12 +14446,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -14466,12 +14466,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>67124</t>
+          <t>67450</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>90068</t>
+          <t>89120</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -14481,12 +14481,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>17,55%</t>
         </is>
       </c>
     </row>
@@ -14509,12 +14509,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>36337</t>
+          <t>36366</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>53184</t>
+          <t>52433</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -14524,12 +14524,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -14544,12 +14544,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>46548</t>
+          <t>46595</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>65682</t>
+          <t>65786</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -14559,12 +14559,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -14579,12 +14579,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>88269</t>
+          <t>87723</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>112765</t>
+          <t>111961</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -14594,12 +14594,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>22,05%</t>
         </is>
       </c>
     </row>
@@ -14622,12 +14622,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>47884</t>
+          <t>48510</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>66582</t>
+          <t>65861</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -14637,12 +14637,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -14657,12 +14657,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>55696</t>
+          <t>56242</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>76820</t>
+          <t>77138</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -14672,12 +14672,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -14692,12 +14692,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>110884</t>
+          <t>110627</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>139391</t>
+          <t>137185</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -14707,12 +14707,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>27,02%</t>
         </is>
       </c>
     </row>
@@ -14735,12 +14735,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>40398</t>
+          <t>41502</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>58672</t>
+          <t>58040</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -14750,12 +14750,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -14770,12 +14770,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>63197</t>
+          <t>62304</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>85797</t>
+          <t>85006</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -14785,12 +14785,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -14805,12 +14805,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>109184</t>
+          <t>110102</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>137124</t>
+          <t>137176</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -14820,12 +14820,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>27,02%</t>
         </is>
       </c>
     </row>
@@ -14848,12 +14848,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>11789</t>
+          <t>11844</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -14863,12 +14863,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -14883,12 +14883,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>5261</t>
+          <t>5281</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>11841</t>
+          <t>12082</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -14898,12 +14898,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -14918,12 +14918,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>11113</t>
+          <t>11062</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>21192</t>
+          <t>21556</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -14933,12 +14933,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,25%</t>
         </is>
       </c>
     </row>
@@ -15078,12 +15078,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>58432</t>
+          <t>58652</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>81675</t>
+          <t>80850</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -15093,12 +15093,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -15113,12 +15113,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>98705</t>
+          <t>99618</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>130208</t>
+          <t>131234</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -15128,12 +15128,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -15148,12 +15148,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>165179</t>
+          <t>165233</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>201423</t>
+          <t>204093</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -15163,12 +15163,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>14,19%</t>
         </is>
       </c>
     </row>
@@ -15191,12 +15191,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>57202</t>
+          <t>58422</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>80749</t>
+          <t>82606</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -15206,12 +15206,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -15226,12 +15226,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>75556</t>
+          <t>75098</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>103041</t>
+          <t>101435</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -15241,12 +15241,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -15261,12 +15261,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>141310</t>
+          <t>141128</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>177039</t>
+          <t>175540</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -15276,12 +15276,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>12,2%</t>
         </is>
       </c>
     </row>
@@ -15304,12 +15304,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>83683</t>
+          <t>84038</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>113128</t>
+          <t>114173</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -15319,12 +15319,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -15339,12 +15339,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>101671</t>
+          <t>101975</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>130770</t>
+          <t>132306</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -15354,12 +15354,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -15374,12 +15374,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>193100</t>
+          <t>194272</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>234642</t>
+          <t>233491</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -15389,12 +15389,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>16,23%</t>
         </is>
       </c>
     </row>
@@ -15417,12 +15417,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>102941</t>
+          <t>102144</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>135451</t>
+          <t>133680</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -15432,12 +15432,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -15452,12 +15452,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>104981</t>
+          <t>104238</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>134385</t>
+          <t>134541</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -15467,12 +15467,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -15487,12 +15487,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>216313</t>
+          <t>217323</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>257891</t>
+          <t>259909</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -15502,12 +15502,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>18,07%</t>
         </is>
       </c>
     </row>
@@ -15530,12 +15530,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>124339</t>
+          <t>121958</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>156104</t>
+          <t>157508</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -15545,12 +15545,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -15565,12 +15565,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>117233</t>
+          <t>116576</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>148810</t>
+          <t>148248</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -15580,12 +15580,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -15600,12 +15600,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>249679</t>
+          <t>250010</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>293713</t>
+          <t>292417</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -15615,12 +15615,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>20,33%</t>
         </is>
       </c>
     </row>
@@ -15643,12 +15643,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>109115</t>
+          <t>107766</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>139278</t>
+          <t>138855</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -15658,12 +15658,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -15678,12 +15678,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>111975</t>
+          <t>112828</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>144080</t>
+          <t>145137</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -15693,12 +15693,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -15713,12 +15713,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>231834</t>
+          <t>229750</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>274193</t>
+          <t>272898</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -15728,12 +15728,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>18,97%</t>
         </is>
       </c>
     </row>
@@ -15756,12 +15756,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>54281</t>
+          <t>54838</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>75381</t>
+          <t>76388</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -15771,12 +15771,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -15791,12 +15791,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>52107</t>
+          <t>51967</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>71805</t>
+          <t>73098</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -15806,12 +15806,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -15826,12 +15826,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>111785</t>
+          <t>111576</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>140665</t>
+          <t>141990</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -15841,12 +15841,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,87%</t>
         </is>
       </c>
     </row>
